--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_CaoAnhVuong.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -244,6 +244,54 @@
   </si>
   <si>
     <t>SL: 5</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170909 </t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Đổi mới BH</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Lỗi cos</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1022,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1189,28 +1237,46 @@
       <c r="B6" s="54">
         <v>44716</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44727</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="38">
-        <v>868183038607510</v>
+        <v>868183038607516</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
+      <c r="H6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>69</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="55"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="58"/>
       <c r="U6" s="61" t="s">
@@ -1625,7 +1691,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2094,7 +2160,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2158,7 +2224,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3252,7 +3318,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3467,7 +3533,9 @@
       <c r="B6" s="54">
         <v>44716</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44727</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
@@ -3478,17 +3546,35 @@
       <c r="G6" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K6" s="55"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
       <c r="U6" s="61" t="s">
@@ -3506,7 +3592,9 @@
       <c r="B7" s="54">
         <v>44716</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44727</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>66</v>
       </c>
@@ -3517,17 +3605,37 @@
       <c r="G7" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="H7" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
       <c r="U7" s="62"/>
@@ -3975,7 +4083,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -4252,7 +4360,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4380,7 +4488,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4444,7 +4552,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5538,7 +5646,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5753,7 +5861,9 @@
       <c r="B6" s="54">
         <v>44716</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44727</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>67</v>
       </c>
@@ -5764,15 +5874,27 @@
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="K6" s="55"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
       <c r="U6" s="61" t="s">
@@ -6219,7 +6341,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6528,7 +6650,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6720,7 +6842,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6806,7 +6928,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="13"/>
     </row>
